--- a/data/pca/factorExposure/factorExposure_2009-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004041689190460754</v>
+        <v>0.01697614098477135</v>
       </c>
       <c r="C2">
-        <v>0.01103198450478845</v>
+        <v>0.001048298436315853</v>
       </c>
       <c r="D2">
-        <v>0.002420672668723196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.006996746450341907</v>
+      </c>
+      <c r="E2">
+        <v>7.122893236184958e-05</v>
+      </c>
+      <c r="F2">
+        <v>0.0112705339246301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03144016381559608</v>
+        <v>0.09361951323198889</v>
       </c>
       <c r="C4">
-        <v>0.1172804532182342</v>
+        <v>0.01512979160886083</v>
       </c>
       <c r="D4">
-        <v>-0.02596197396167056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08437492477847933</v>
+      </c>
+      <c r="E4">
+        <v>-0.02833694891665527</v>
+      </c>
+      <c r="F4">
+        <v>-0.0305883011732959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04053198025086859</v>
+        <v>0.1572227706255561</v>
       </c>
       <c r="C6">
-        <v>0.1164655784648116</v>
+        <v>0.02519247168877233</v>
       </c>
       <c r="D6">
-        <v>0.03437051809302289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02110736899407566</v>
+      </c>
+      <c r="E6">
+        <v>-0.01018683691715491</v>
+      </c>
+      <c r="F6">
+        <v>-0.04571467690924624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01220824839683573</v>
+        <v>0.06262871390093047</v>
       </c>
       <c r="C7">
-        <v>0.08406675212085342</v>
+        <v>-0.001780811537215599</v>
       </c>
       <c r="D7">
-        <v>0.004150467904262756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05360111651157854</v>
+      </c>
+      <c r="E7">
+        <v>-0.0102816447464941</v>
+      </c>
+      <c r="F7">
+        <v>-0.04770599118300314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0007158763643198329</v>
+        <v>0.05692930277589644</v>
       </c>
       <c r="C8">
-        <v>0.07462663407381966</v>
+        <v>-0.01387512670035676</v>
       </c>
       <c r="D8">
-        <v>0.0329111280323088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03461661304359855</v>
+      </c>
+      <c r="E8">
+        <v>-0.01789779594583498</v>
+      </c>
+      <c r="F8">
+        <v>0.02800475649947757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02621732355031129</v>
+        <v>0.0711703545906352</v>
       </c>
       <c r="C9">
-        <v>0.09672608995816029</v>
+        <v>0.01076964980042391</v>
       </c>
       <c r="D9">
-        <v>-0.03113398736096166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08656868442828231</v>
+      </c>
+      <c r="E9">
+        <v>-0.02305792495971667</v>
+      </c>
+      <c r="F9">
+        <v>-0.04736274944528676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01283641653519635</v>
+        <v>0.09571204509718359</v>
       </c>
       <c r="C10">
-        <v>0.02639676161003931</v>
+        <v>0.02094076024479133</v>
       </c>
       <c r="D10">
-        <v>0.1216607066776696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1716915927458965</v>
+      </c>
+      <c r="E10">
+        <v>0.03617500152910341</v>
+      </c>
+      <c r="F10">
+        <v>0.05440788012404816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03113054960119065</v>
+        <v>0.08790134036861967</v>
       </c>
       <c r="C11">
-        <v>0.1010055676872361</v>
+        <v>0.01031547670714275</v>
       </c>
       <c r="D11">
-        <v>-0.03389057434451148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.115704568900528</v>
+      </c>
+      <c r="E11">
+        <v>-0.04559389407686166</v>
+      </c>
+      <c r="F11">
+        <v>-0.02190752132055718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02886639808320006</v>
+        <v>0.09213991488307019</v>
       </c>
       <c r="C12">
-        <v>0.1115777046225762</v>
+        <v>0.00748317139308594</v>
       </c>
       <c r="D12">
-        <v>-0.03070489041589116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1313012938824442</v>
+      </c>
+      <c r="E12">
+        <v>-0.04716334257529744</v>
+      </c>
+      <c r="F12">
+        <v>-0.02636163419814848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01012924127172512</v>
+        <v>0.04156151149341694</v>
       </c>
       <c r="C13">
-        <v>0.04165086281669075</v>
+        <v>0.002915779227901789</v>
       </c>
       <c r="D13">
-        <v>-0.02069826451026058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05209044763562259</v>
+      </c>
+      <c r="E13">
+        <v>0.008586495448245524</v>
+      </c>
+      <c r="F13">
+        <v>-0.003187205489809602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01627932974957687</v>
+        <v>0.02270926737641107</v>
       </c>
       <c r="C14">
-        <v>0.02225857802307166</v>
+        <v>0.01369326335818048</v>
       </c>
       <c r="D14">
-        <v>0.004181508795327473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03301678576760268</v>
+      </c>
+      <c r="E14">
+        <v>-0.01711401058661621</v>
+      </c>
+      <c r="F14">
+        <v>-0.01412408178823216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01096289132550057</v>
+        <v>0.03284868426013206</v>
       </c>
       <c r="C15">
-        <v>0.0267923174323686</v>
+        <v>0.004709518000230081</v>
       </c>
       <c r="D15">
-        <v>-0.01044624941463256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0453231576858607</v>
+      </c>
+      <c r="E15">
+        <v>-0.006217427780309116</v>
+      </c>
+      <c r="F15">
+        <v>-0.02268268191712784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02068018273543928</v>
+        <v>0.07410628846107137</v>
       </c>
       <c r="C16">
-        <v>0.1066411298454766</v>
+        <v>0.001433775226055729</v>
       </c>
       <c r="D16">
-        <v>-0.012933630053316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1250808396675697</v>
+      </c>
+      <c r="E16">
+        <v>-0.06139866587657832</v>
+      </c>
+      <c r="F16">
+        <v>-0.02469152546161085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03168496202472406</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003488556249130327</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01974925596857707</v>
+      </c>
+      <c r="E18">
+        <v>0.007316696204790868</v>
+      </c>
+      <c r="F18">
+        <v>0.003417714830554119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01322365002779176</v>
+        <v>0.06108002245201864</v>
       </c>
       <c r="C20">
-        <v>0.06168416881713958</v>
+        <v>4.639693560294605e-05</v>
       </c>
       <c r="D20">
-        <v>0.003867974908007067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07735655776071342</v>
+      </c>
+      <c r="E20">
+        <v>-0.05550738524533435</v>
+      </c>
+      <c r="F20">
+        <v>-0.02341386532185119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01378321827308979</v>
+        <v>0.04037296859893628</v>
       </c>
       <c r="C21">
-        <v>0.02529472311428057</v>
+        <v>0.006294772055430901</v>
       </c>
       <c r="D21">
-        <v>0.0004369311485256314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03737071769086356</v>
+      </c>
+      <c r="E21">
+        <v>0.005509796780168083</v>
+      </c>
+      <c r="F21">
+        <v>0.02367312774658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005794896790832199</v>
+        <v>0.0438005765117803</v>
       </c>
       <c r="C22">
-        <v>0.03110418511078844</v>
+        <v>0.0006908332417787215</v>
       </c>
       <c r="D22">
-        <v>0.03824311071861346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003725511542953255</v>
+      </c>
+      <c r="E22">
+        <v>-0.02982635275950164</v>
+      </c>
+      <c r="F22">
+        <v>0.03554175349690429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.00578193410756073</v>
+        <v>0.0437861401375744</v>
       </c>
       <c r="C23">
-        <v>0.03104037764475247</v>
+        <v>0.0006865187782496404</v>
       </c>
       <c r="D23">
-        <v>0.03832669396188678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003730393677016253</v>
+      </c>
+      <c r="E23">
+        <v>-0.03002785326883138</v>
+      </c>
+      <c r="F23">
+        <v>0.03550439482873794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02038105969278591</v>
+        <v>0.08021080039623642</v>
       </c>
       <c r="C24">
-        <v>0.1068024327069955</v>
+        <v>0.001896734871180949</v>
       </c>
       <c r="D24">
-        <v>-0.0279463163184539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1203763977336693</v>
+      </c>
+      <c r="E24">
+        <v>-0.04882890785609832</v>
+      </c>
+      <c r="F24">
+        <v>-0.02627267628839921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02624954996515628</v>
+        <v>0.0852144500687841</v>
       </c>
       <c r="C25">
-        <v>0.108592679729831</v>
+        <v>0.004186217137630515</v>
       </c>
       <c r="D25">
-        <v>-0.02258390265579497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1087827441945989</v>
+      </c>
+      <c r="E25">
+        <v>-0.03223776907318127</v>
+      </c>
+      <c r="F25">
+        <v>-0.02685837605112292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02520480392092085</v>
+        <v>0.05813443598087225</v>
       </c>
       <c r="C26">
-        <v>0.05019941601222132</v>
+        <v>0.01434352698314965</v>
       </c>
       <c r="D26">
-        <v>0.01789496012532264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03960644687320666</v>
+      </c>
+      <c r="E26">
+        <v>-0.02768000673348139</v>
+      </c>
+      <c r="F26">
+        <v>0.009036141759142791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.008353018693490406</v>
+        <v>0.1404846484944266</v>
       </c>
       <c r="C28">
-        <v>0.04232984274481993</v>
+        <v>0.02029585246377869</v>
       </c>
       <c r="D28">
-        <v>0.1919737758996501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2615175761808666</v>
+      </c>
+      <c r="E28">
+        <v>0.06686254185701476</v>
+      </c>
+      <c r="F28">
+        <v>-0.009867283253846497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01305040559557569</v>
+        <v>0.02759515080531333</v>
       </c>
       <c r="C29">
-        <v>0.02745082055501441</v>
+        <v>0.008070995976375814</v>
       </c>
       <c r="D29">
-        <v>0.005948956111120876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03199622431010891</v>
+      </c>
+      <c r="E29">
+        <v>-0.01122603354711408</v>
+      </c>
+      <c r="F29">
+        <v>0.0104774347800323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01712831155592839</v>
+        <v>0.06133308496724749</v>
       </c>
       <c r="C30">
-        <v>0.1279767456229187</v>
+        <v>0.003098419175697317</v>
       </c>
       <c r="D30">
-        <v>-0.02025658003122863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0891481628334586</v>
+      </c>
+      <c r="E30">
+        <v>-0.01934396861909269</v>
+      </c>
+      <c r="F30">
+        <v>-0.08374624018296097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02200401982653476</v>
+        <v>0.04992172741914063</v>
       </c>
       <c r="C31">
-        <v>0.03412258704694311</v>
+        <v>0.01508332783987707</v>
       </c>
       <c r="D31">
-        <v>0.0008596519512654522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02511987975663761</v>
+      </c>
+      <c r="E31">
+        <v>-0.02747041201756179</v>
+      </c>
+      <c r="F31">
+        <v>0.002431725397295288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008885487072931993</v>
+        <v>0.0503558720291931</v>
       </c>
       <c r="C32">
-        <v>0.05787957263355477</v>
+        <v>-0.001698986029268328</v>
       </c>
       <c r="D32">
-        <v>0.02819126587531511</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03581401942023649</v>
+      </c>
+      <c r="E32">
+        <v>-0.03074474650808101</v>
+      </c>
+      <c r="F32">
+        <v>-0.003062040815676041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02327261648340667</v>
+        <v>0.08934770393536867</v>
       </c>
       <c r="C33">
-        <v>0.1060320170758308</v>
+        <v>0.007482171339257889</v>
       </c>
       <c r="D33">
-        <v>-0.02581182093244521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09929145667077986</v>
+      </c>
+      <c r="E33">
+        <v>-0.04391996107619053</v>
+      </c>
+      <c r="F33">
+        <v>-0.03564875633898412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02877517935194412</v>
+        <v>0.06845277905048264</v>
       </c>
       <c r="C34">
-        <v>0.09555684257026797</v>
+        <v>0.01049028176035742</v>
       </c>
       <c r="D34">
-        <v>-0.01287763882687174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1067161692073249</v>
+      </c>
+      <c r="E34">
+        <v>-0.03450756587232133</v>
+      </c>
+      <c r="F34">
+        <v>-0.03392584718698801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003850531461459374</v>
+        <v>0.0242735094325892</v>
       </c>
       <c r="C35">
-        <v>0.0119686079205532</v>
+        <v>0.002364680341787329</v>
       </c>
       <c r="D35">
-        <v>-0.002344601254157253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01187388008095862</v>
+      </c>
+      <c r="E35">
+        <v>-0.01184779086020507</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007927696282117362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01115975901048089</v>
+        <v>0.02799028983896573</v>
       </c>
       <c r="C36">
-        <v>0.02394448407341065</v>
+        <v>0.007034128811299599</v>
       </c>
       <c r="D36">
-        <v>-0.007133296241409351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03892270132791604</v>
+      </c>
+      <c r="E36">
+        <v>-0.01598353541342638</v>
+      </c>
+      <c r="F36">
+        <v>-0.01510039237397403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003631894471983536</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-4.491539765597207e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0005158696609247213</v>
+      </c>
+      <c r="E37">
+        <v>0.0004980966003117301</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006966527776358055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006760730398979637</v>
+        <v>0.00155753054264465</v>
       </c>
       <c r="C38">
-        <v>0.004360853866038484</v>
+        <v>0.0002602410816102518</v>
       </c>
       <c r="D38">
-        <v>0.002841517998239096</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0001397982995661797</v>
+      </c>
+      <c r="E38">
+        <v>-0.0005547493366486621</v>
+      </c>
+      <c r="F38">
+        <v>0.0008466482614436211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04439548647742014</v>
+        <v>0.1054798165251018</v>
       </c>
       <c r="C39">
-        <v>0.1590398353479286</v>
+        <v>0.01545742482364851</v>
       </c>
       <c r="D39">
-        <v>-0.04835872844415963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.153798463747384</v>
+      </c>
+      <c r="E39">
+        <v>-0.05888024292621801</v>
+      </c>
+      <c r="F39">
+        <v>-0.02899886485616779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01151928747782958</v>
+        <v>0.04104036141132358</v>
       </c>
       <c r="C40">
-        <v>0.01182191033095459</v>
+        <v>0.006678947864343697</v>
       </c>
       <c r="D40">
-        <v>0.01013101492558489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03268224486502059</v>
+      </c>
+      <c r="E40">
+        <v>-0.003455642589708046</v>
+      </c>
+      <c r="F40">
+        <v>0.01523943442159948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0116349219969398</v>
+        <v>0.02785492169938463</v>
       </c>
       <c r="C41">
-        <v>0.0180393297910744</v>
+        <v>0.006711368417609613</v>
       </c>
       <c r="D41">
-        <v>0.01532653063075554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01028460912682588</v>
+      </c>
+      <c r="E41">
+        <v>-0.01231448318848629</v>
+      </c>
+      <c r="F41">
+        <v>0.006629702385143403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01356987907822295</v>
+        <v>0.04072992554715971</v>
       </c>
       <c r="C43">
-        <v>0.02726009168154337</v>
+        <v>0.006751861546526877</v>
       </c>
       <c r="D43">
-        <v>0.01022024903694143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01975652942686481</v>
+      </c>
+      <c r="E43">
+        <v>-0.02451698255707799</v>
+      </c>
+      <c r="F43">
+        <v>0.0126302492659463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03379523549914074</v>
+        <v>0.0803081140202813</v>
       </c>
       <c r="C44">
-        <v>0.1270295324987673</v>
+        <v>0.01976512345984541</v>
       </c>
       <c r="D44">
-        <v>0.001302023971968078</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09802694262917189</v>
+      </c>
+      <c r="E44">
+        <v>-0.06561015331634193</v>
+      </c>
+      <c r="F44">
+        <v>-0.1569493955477775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005618571193926465</v>
+        <v>0.02331864376617377</v>
       </c>
       <c r="C46">
-        <v>0.00640635837574184</v>
+        <v>0.003453510645876612</v>
       </c>
       <c r="D46">
-        <v>0.01927000523693457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01309377783376087</v>
+      </c>
+      <c r="E46">
+        <v>-0.02214202949607762</v>
+      </c>
+      <c r="F46">
+        <v>0.004954289740350865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0113983268728128</v>
+        <v>0.05120700898776277</v>
       </c>
       <c r="C47">
-        <v>0.0339985024656592</v>
+        <v>0.00328824713836951</v>
       </c>
       <c r="D47">
-        <v>0.02814371205444271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01402733111345121</v>
+      </c>
+      <c r="E47">
+        <v>-0.02343088779677306</v>
+      </c>
+      <c r="F47">
+        <v>0.03370414339162667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01277025134156643</v>
+        <v>0.04989994970543386</v>
       </c>
       <c r="C48">
-        <v>0.04847054772931398</v>
+        <v>0.002193055241704841</v>
       </c>
       <c r="D48">
-        <v>-0.015716510342604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04988818690093674</v>
+      </c>
+      <c r="E48">
+        <v>0.006301420070858443</v>
+      </c>
+      <c r="F48">
+        <v>-0.009717703131963688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04171425850778476</v>
+        <v>0.1995117575840399</v>
       </c>
       <c r="C49">
-        <v>0.2168485542056767</v>
+        <v>0.01847503580002106</v>
       </c>
       <c r="D49">
-        <v>0.05977459802068581</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007352963167198931</v>
+      </c>
+      <c r="E49">
+        <v>-0.03106885104887206</v>
+      </c>
+      <c r="F49">
+        <v>-0.03918764500604088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01893795457660932</v>
+        <v>0.05081892832895933</v>
       </c>
       <c r="C50">
-        <v>0.03928378384238397</v>
+        <v>0.01113823188289829</v>
       </c>
       <c r="D50">
-        <v>0.007998561313046243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02360374829702441</v>
+      </c>
+      <c r="E50">
+        <v>-0.02934219712823886</v>
+      </c>
+      <c r="F50">
+        <v>-0.009080870418347405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003188704070320429</v>
+        <v>0.0004927566291619543</v>
       </c>
       <c r="C51">
-        <v>0.001058574120904177</v>
+        <v>0.0001356419570243881</v>
       </c>
       <c r="D51">
-        <v>0.0008898112032405274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>2.516503491610315e-05</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001071676392921907</v>
+      </c>
+      <c r="F51">
+        <v>-0.0027521730388166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03356463704515354</v>
+        <v>0.1464552340866536</v>
       </c>
       <c r="C52">
-        <v>0.1524446789318271</v>
+        <v>0.01541927511216067</v>
       </c>
       <c r="D52">
-        <v>-0.01915074080155666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04457974294827275</v>
+      </c>
+      <c r="E52">
+        <v>-0.02000321266456683</v>
+      </c>
+      <c r="F52">
+        <v>-0.04077458107582902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03489896580765797</v>
+        <v>0.1724217863192877</v>
       </c>
       <c r="C53">
-        <v>0.1743726818550795</v>
+        <v>0.01864558355771043</v>
       </c>
       <c r="D53">
-        <v>0.01337203125345143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005848839271731856</v>
+      </c>
+      <c r="E53">
+        <v>-0.03109985888023937</v>
+      </c>
+      <c r="F53">
+        <v>-0.07212421144644537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01637326091894563</v>
+        <v>0.02214887668620703</v>
       </c>
       <c r="C54">
-        <v>0.0382339878156126</v>
+        <v>0.01231596035081593</v>
       </c>
       <c r="D54">
-        <v>0.006009526341469233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03428456217934078</v>
+      </c>
+      <c r="E54">
+        <v>-0.01863333592983345</v>
+      </c>
+      <c r="F54">
+        <v>0.003262514948500615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02654221405262158</v>
+        <v>0.1139141491192238</v>
       </c>
       <c r="C55">
-        <v>0.08908548878041481</v>
+        <v>0.01625026834311943</v>
       </c>
       <c r="D55">
-        <v>0.0006308393446314031</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009709307883291635</v>
+      </c>
+      <c r="E55">
+        <v>-0.02785111054173951</v>
+      </c>
+      <c r="F55">
+        <v>-0.04636916352460253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.035710204029129</v>
+        <v>0.1771383510467371</v>
       </c>
       <c r="C56">
-        <v>0.160956074370328</v>
+        <v>0.01612811325577057</v>
       </c>
       <c r="D56">
-        <v>0.02243398241760516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0007293684322401063</v>
+      </c>
+      <c r="E56">
+        <v>-0.03529226914797911</v>
+      </c>
+      <c r="F56">
+        <v>-0.05041462985429535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01320349333002942</v>
+        <v>0.046319454963867</v>
       </c>
       <c r="C58">
-        <v>0.04927786501826496</v>
+        <v>0.0004729723197119015</v>
       </c>
       <c r="D58">
-        <v>-0.01257957242999541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06741199549340998</v>
+      </c>
+      <c r="E58">
+        <v>-0.02740780402343833</v>
+      </c>
+      <c r="F58">
+        <v>0.03584868957245098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01744621834002935</v>
+        <v>0.1675308986428154</v>
       </c>
       <c r="C59">
-        <v>0.09998719263934898</v>
+        <v>0.02082901233970292</v>
       </c>
       <c r="D59">
-        <v>0.1994812426296734</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2173288675195811</v>
+      </c>
+      <c r="E59">
+        <v>0.04521618962889542</v>
+      </c>
+      <c r="F59">
+        <v>0.03390397271855038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03239544279281738</v>
+        <v>0.2312248357305678</v>
       </c>
       <c r="C60">
-        <v>0.2778928797783319</v>
+        <v>-0.003072435311345695</v>
       </c>
       <c r="D60">
-        <v>0.001270069171234087</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04221223255221548</v>
+      </c>
+      <c r="E60">
+        <v>-0.01107161318394418</v>
+      </c>
+      <c r="F60">
+        <v>0.006942265465334688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03159549099650785</v>
+        <v>0.08198864756778577</v>
       </c>
       <c r="C61">
-        <v>0.1202973197185358</v>
+        <v>0.01147937940265331</v>
       </c>
       <c r="D61">
-        <v>-0.01676578630818315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1162268845336201</v>
+      </c>
+      <c r="E61">
+        <v>-0.03835724119578099</v>
+      </c>
+      <c r="F61">
+        <v>-0.011767083354693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.0376848404477425</v>
+        <v>0.1705761304540673</v>
       </c>
       <c r="C62">
-        <v>0.1637736086641966</v>
+        <v>0.01948701605429999</v>
       </c>
       <c r="D62">
-        <v>0.01743245305951977</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006294952981872419</v>
+      </c>
+      <c r="E62">
+        <v>-0.03447862028228858</v>
+      </c>
+      <c r="F62">
+        <v>-0.03310563614724692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0122687188476214</v>
+        <v>0.04585673468134355</v>
       </c>
       <c r="C63">
-        <v>0.05055778556715401</v>
+        <v>0.001821084150669212</v>
       </c>
       <c r="D63">
-        <v>-0.01306683709989585</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05836762745935035</v>
+      </c>
+      <c r="E63">
+        <v>-0.02149902995902806</v>
+      </c>
+      <c r="F63">
+        <v>-0.005971036230385033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0254723790677184</v>
+        <v>0.1106624627501286</v>
       </c>
       <c r="C64">
-        <v>0.09491385113297468</v>
+        <v>0.01095028769457795</v>
       </c>
       <c r="D64">
-        <v>0.009233122305350137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04272581738573675</v>
+      </c>
+      <c r="E64">
+        <v>-0.0239351209297404</v>
+      </c>
+      <c r="F64">
+        <v>-0.02564797414347131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04160519268774119</v>
+        <v>0.1479018053438447</v>
       </c>
       <c r="C65">
-        <v>0.1090826670671076</v>
+        <v>0.03258667851449332</v>
       </c>
       <c r="D65">
-        <v>0.02518092361704005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0412303987829578</v>
+      </c>
+      <c r="E65">
+        <v>-0.003610747018460563</v>
+      </c>
+      <c r="F65">
+        <v>-0.03925698036247379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04251982105491389</v>
+        <v>0.1251163106032725</v>
       </c>
       <c r="C66">
-        <v>0.1869071869845281</v>
+        <v>0.01354123563498111</v>
       </c>
       <c r="D66">
-        <v>-0.04540161397076507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1423875525131814</v>
+      </c>
+      <c r="E66">
+        <v>-0.06643100350436412</v>
+      </c>
+      <c r="F66">
+        <v>-0.03129954889581219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01506373499405006</v>
+        <v>0.06092253431395526</v>
       </c>
       <c r="C67">
-        <v>0.07301856695981698</v>
+        <v>0.003105657751742866</v>
       </c>
       <c r="D67">
-        <v>-0.00842228173472457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05509559402502152</v>
+      </c>
+      <c r="E67">
+        <v>-0.0171811646661222</v>
+      </c>
+      <c r="F67">
+        <v>0.03412615487544673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01812194008578477</v>
+        <v>0.1169620102235496</v>
       </c>
       <c r="C68">
-        <v>0.02874781941331235</v>
+        <v>0.03143981657230972</v>
       </c>
       <c r="D68">
-        <v>0.1753249595639794</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2618176377606202</v>
+      </c>
+      <c r="E68">
+        <v>0.08660060659229354</v>
+      </c>
+      <c r="F68">
+        <v>-0.00503492678969702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.006572372230484669</v>
+        <v>0.03981914859922653</v>
       </c>
       <c r="C69">
-        <v>0.03401504616757382</v>
+        <v>0.001320570662604514</v>
       </c>
       <c r="D69">
-        <v>0.007851175680416348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00727966876635413</v>
+      </c>
+      <c r="E69">
+        <v>-0.02294757504297877</v>
+      </c>
+      <c r="F69">
+        <v>0.0008747237197967605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0002020473980266386</v>
+        <v>0.06594453167644435</v>
       </c>
       <c r="C70">
-        <v>0.03471830087640922</v>
+        <v>-0.02804024383613426</v>
       </c>
       <c r="D70">
-        <v>-0.0003833595769073803</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02452512205869767</v>
+      </c>
+      <c r="E70">
+        <v>0.03989909819098736</v>
+      </c>
+      <c r="F70">
+        <v>0.1858408282138414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02224940588302885</v>
+        <v>0.1367185970633921</v>
       </c>
       <c r="C71">
-        <v>0.03958055105423289</v>
+        <v>0.03579136076454486</v>
       </c>
       <c r="D71">
-        <v>0.1872125768193126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2737029827238364</v>
+      </c>
+      <c r="E71">
+        <v>0.09601488675117224</v>
+      </c>
+      <c r="F71">
+        <v>-0.0119151246169961</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03868237139116889</v>
+        <v>0.1420390585869443</v>
       </c>
       <c r="C72">
-        <v>0.123554453703859</v>
+        <v>0.02587020888491856</v>
       </c>
       <c r="D72">
-        <v>0.03837726861504657</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001264703800554686</v>
+      </c>
+      <c r="E72">
+        <v>-0.03800884783674255</v>
+      </c>
+      <c r="F72">
+        <v>-0.03450895829245588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03696083945193401</v>
+        <v>0.2005159124782101</v>
       </c>
       <c r="C73">
-        <v>0.2118436895708554</v>
+        <v>0.01209503391188427</v>
       </c>
       <c r="D73">
-        <v>0.05187199709671993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01834917671478569</v>
+      </c>
+      <c r="E73">
+        <v>-0.06473978371193966</v>
+      </c>
+      <c r="F73">
+        <v>-0.03863416578821097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02271159697448781</v>
+        <v>0.09487793377158524</v>
       </c>
       <c r="C74">
-        <v>0.1105064391040257</v>
+        <v>0.01307857989334055</v>
       </c>
       <c r="D74">
-        <v>0.02839804554402144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01720335140198307</v>
+      </c>
+      <c r="E74">
+        <v>-0.0438239069823362</v>
+      </c>
+      <c r="F74">
+        <v>-0.05608193044467415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04417368602944773</v>
+        <v>0.1284975504289137</v>
       </c>
       <c r="C75">
-        <v>0.1358843707788419</v>
+        <v>0.02758042943851147</v>
       </c>
       <c r="D75">
-        <v>0.03202884835153498</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03003750733415234</v>
+      </c>
+      <c r="E75">
+        <v>-0.05794612940439406</v>
+      </c>
+      <c r="F75">
+        <v>-0.01774896137338687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001800439572642805</v>
+        <v>0.0004393135170380306</v>
       </c>
       <c r="C76">
-        <v>0.001465416258770434</v>
+        <v>0.0001353839947237433</v>
       </c>
       <c r="D76">
-        <v>0.001578229974381435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0004239297338107062</v>
+      </c>
+      <c r="E76">
+        <v>-8.212829498949646e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0005499393760294627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0261816122491223</v>
+        <v>0.08556232432879239</v>
       </c>
       <c r="C77">
-        <v>0.0994156821623474</v>
+        <v>0.007803500900752299</v>
       </c>
       <c r="D77">
-        <v>-0.04596186543120089</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1143729061442694</v>
+      </c>
+      <c r="E77">
+        <v>-0.03912243040197999</v>
+      </c>
+      <c r="F77">
+        <v>-0.03327151836542024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05619598362565962</v>
+        <v>0.09949515710767225</v>
       </c>
       <c r="C78">
-        <v>0.1388855817590048</v>
+        <v>0.03897145200250231</v>
       </c>
       <c r="D78">
-        <v>0.01456518892533305</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1173350219476859</v>
+      </c>
+      <c r="E78">
+        <v>-0.07426748158361086</v>
+      </c>
+      <c r="F78">
+        <v>-0.04585593470007645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03874608352092645</v>
+        <v>0.1647610069345633</v>
       </c>
       <c r="C79">
-        <v>0.1443156837374826</v>
+        <v>0.02219076885850252</v>
       </c>
       <c r="D79">
-        <v>0.02894264251064465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01499886998150374</v>
+      </c>
+      <c r="E79">
+        <v>-0.04615289276773354</v>
+      </c>
+      <c r="F79">
+        <v>-0.01031507074216178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.01030562579172935</v>
+        <v>0.08245301612728552</v>
       </c>
       <c r="C80">
-        <v>0.08300506131066621</v>
+        <v>-0.001071751482577332</v>
       </c>
       <c r="D80">
-        <v>0.01058535454908986</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05700166800166537</v>
+      </c>
+      <c r="E80">
+        <v>-0.03697761538741573</v>
+      </c>
+      <c r="F80">
+        <v>0.02379391964554254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.0459517568209258</v>
+        <v>0.1217400147579665</v>
       </c>
       <c r="C81">
-        <v>0.1367265415308682</v>
+        <v>0.03151587214177087</v>
       </c>
       <c r="D81">
-        <v>0.01821273531336932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01581153114088105</v>
+      </c>
+      <c r="E81">
+        <v>-0.05756214440333681</v>
+      </c>
+      <c r="F81">
+        <v>-0.01562609986125716</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04095840879148183</v>
+        <v>0.1665967465266439</v>
       </c>
       <c r="C82">
-        <v>0.1673681106533324</v>
+        <v>0.02400745597309644</v>
       </c>
       <c r="D82">
-        <v>0.02347754693964082</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003292844855594308</v>
+      </c>
+      <c r="E82">
+        <v>-0.02759309485675872</v>
+      </c>
+      <c r="F82">
+        <v>-0.07910844515601263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0181401847492654</v>
+        <v>0.0605822322968568</v>
       </c>
       <c r="C83">
-        <v>0.07022439101160266</v>
+        <v>0.002817736528698057</v>
       </c>
       <c r="D83">
-        <v>-0.00153801438474815</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05046959086381466</v>
+      </c>
+      <c r="E83">
+        <v>-0.004715174784159348</v>
+      </c>
+      <c r="F83">
+        <v>0.03145261006856376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0272871397335854</v>
+        <v>0.05854685376612292</v>
       </c>
       <c r="C84">
-        <v>0.08203820951668093</v>
+        <v>0.01086146795722272</v>
       </c>
       <c r="D84">
-        <v>-0.02668137642282192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06448349385619474</v>
+      </c>
+      <c r="E84">
+        <v>-0.006893571746750491</v>
+      </c>
+      <c r="F84">
+        <v>-0.003872085757241566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04002675345502368</v>
+        <v>0.1366365429043078</v>
       </c>
       <c r="C85">
-        <v>0.1189937127709267</v>
+        <v>0.02744177950234314</v>
       </c>
       <c r="D85">
-        <v>0.01531289604365678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01076021802520598</v>
+      </c>
+      <c r="E85">
+        <v>-0.03826684255968651</v>
+      </c>
+      <c r="F85">
+        <v>-0.04431116197151957</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01168464722917843</v>
+        <v>0.09375133581841424</v>
       </c>
       <c r="C86">
-        <v>0.0811655653516236</v>
+        <v>-0.006579338831584134</v>
       </c>
       <c r="D86">
-        <v>0.1826780649449712</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04246028972493342</v>
+      </c>
+      <c r="E86">
+        <v>-0.2137985322401179</v>
+      </c>
+      <c r="F86">
+        <v>0.9080735650293186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04028231644014277</v>
+        <v>0.09680851826020768</v>
       </c>
       <c r="C87">
-        <v>0.1061919083762224</v>
+        <v>0.01936277848198381</v>
       </c>
       <c r="D87">
-        <v>-0.05675788451259398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0968582286494744</v>
+      </c>
+      <c r="E87">
+        <v>0.05035714633081843</v>
+      </c>
+      <c r="F87">
+        <v>-0.05357470396933177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01423274962132737</v>
+        <v>0.060878629879838</v>
       </c>
       <c r="C88">
-        <v>0.05936024915098057</v>
+        <v>0.002096712141773203</v>
       </c>
       <c r="D88">
-        <v>-0.003129529073252253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04931431163737831</v>
+      </c>
+      <c r="E88">
+        <v>-0.02432583790536268</v>
+      </c>
+      <c r="F88">
+        <v>-0.0119796158972036</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.003592116608039091</v>
+        <v>0.1338626368066008</v>
       </c>
       <c r="C89">
-        <v>0.05415110951326346</v>
+        <v>0.01319008650450001</v>
       </c>
       <c r="D89">
-        <v>0.2195856599930995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2510979622270831</v>
+      </c>
+      <c r="E89">
+        <v>0.09054527006164988</v>
+      </c>
+      <c r="F89">
+        <v>0.008148365621353799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02099554256668134</v>
+        <v>0.1501324062568012</v>
       </c>
       <c r="C90">
-        <v>0.04268848759459521</v>
+        <v>0.03192139982353344</v>
       </c>
       <c r="D90">
-        <v>0.1960623980350015</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2689536038024872</v>
+      </c>
+      <c r="E90">
+        <v>0.1115001829222347</v>
+      </c>
+      <c r="F90">
+        <v>0.00160505613183817</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02558029500792381</v>
+        <v>0.1205234339795824</v>
       </c>
       <c r="C91">
-        <v>0.1018261728827399</v>
+        <v>0.01866047675429951</v>
       </c>
       <c r="D91">
-        <v>0.02153558789495483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01301146827898641</v>
+      </c>
+      <c r="E91">
+        <v>-0.05608115228974809</v>
+      </c>
+      <c r="F91">
+        <v>0.003355538576407245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.006749614782349534</v>
+        <v>0.1473449955700722</v>
       </c>
       <c r="C92">
-        <v>0.05744224075487076</v>
+        <v>0.02351226150903085</v>
       </c>
       <c r="D92">
-        <v>0.2102145979549033</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2912399299100102</v>
+      </c>
+      <c r="E92">
+        <v>0.1001039552070001</v>
+      </c>
+      <c r="F92">
+        <v>0.0130543259189917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0189487945786959</v>
+        <v>0.151934242182117</v>
       </c>
       <c r="C93">
-        <v>0.05677821518176886</v>
+        <v>0.02778818998893824</v>
       </c>
       <c r="D93">
-        <v>0.2210640676427981</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2686466133584979</v>
+      </c>
+      <c r="E93">
+        <v>0.07660909262911325</v>
+      </c>
+      <c r="F93">
+        <v>-0.00227544480074719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.042951845632887</v>
+        <v>0.131089048898534</v>
       </c>
       <c r="C94">
-        <v>0.1497015706983555</v>
+        <v>0.02447285596465807</v>
       </c>
       <c r="D94">
-        <v>0.01509821868758196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04226471743867934</v>
+      </c>
+      <c r="E94">
+        <v>-0.05735964516651591</v>
+      </c>
+      <c r="F94">
+        <v>-0.03518587535394088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02733551628743795</v>
+        <v>0.1275144168123578</v>
       </c>
       <c r="C95">
-        <v>0.1390651202338329</v>
+        <v>0.00352425086278421</v>
       </c>
       <c r="D95">
-        <v>-0.02312696475673804</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09162491377410867</v>
+      </c>
+      <c r="E95">
+        <v>-0.04662671577812076</v>
+      </c>
+      <c r="F95">
+        <v>0.006530665227879204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9718280325537559</v>
+        <v>0.1047533910403904</v>
       </c>
       <c r="C96">
-        <v>0.2173244743672708</v>
+        <v>-0.9876751539969632</v>
       </c>
       <c r="D96">
-        <v>0.02807946791351126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04808541074389421</v>
+      </c>
+      <c r="E96">
+        <v>-0.05540826314287403</v>
+      </c>
+      <c r="F96">
+        <v>-0.04237205654650972</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.005247983018726427</v>
+        <v>0.1932819698126053</v>
       </c>
       <c r="C97">
-        <v>0.1519093224870957</v>
+        <v>-0.007600520406528413</v>
       </c>
       <c r="D97">
-        <v>0.05417438477405156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01814809923365489</v>
+      </c>
+      <c r="E97">
+        <v>-0.01784313557886533</v>
+      </c>
+      <c r="F97">
+        <v>0.09166442186663236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02976299746466855</v>
+        <v>0.2042076072999665</v>
       </c>
       <c r="C98">
-        <v>0.2002527678580449</v>
+        <v>0.006821477673929057</v>
       </c>
       <c r="D98">
-        <v>0.01870082904938358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01362713111084869</v>
+      </c>
+      <c r="E98">
+        <v>0.0839063477621203</v>
+      </c>
+      <c r="F98">
+        <v>0.09367496420772511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.005133043779851599</v>
+        <v>0.05569512478661539</v>
       </c>
       <c r="C99">
-        <v>0.06315733389841115</v>
+        <v>-0.004989350982207214</v>
       </c>
       <c r="D99">
-        <v>0.01396661492795509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03989120059042582</v>
+      </c>
+      <c r="E99">
+        <v>-0.02319826623491239</v>
+      </c>
+      <c r="F99">
+        <v>-0.001579380171484433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004855480571293668</v>
+        <v>0.1251569140416534</v>
       </c>
       <c r="C100">
-        <v>0.1815251896425914</v>
+        <v>-0.05485448929696556</v>
       </c>
       <c r="D100">
-        <v>-0.7639545368986485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3428970472180546</v>
+      </c>
+      <c r="E100">
+        <v>0.8896921183690378</v>
+      </c>
+      <c r="F100">
+        <v>0.1418951376876758</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0130650551895069</v>
+        <v>0.02751871540997842</v>
       </c>
       <c r="C101">
-        <v>0.02745394552623135</v>
+        <v>0.0080802495054877</v>
       </c>
       <c r="D101">
-        <v>0.005808697256399892</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03171704178701354</v>
+      </c>
+      <c r="E101">
+        <v>-0.01067602285316466</v>
+      </c>
+      <c r="F101">
+        <v>0.01176375148006074</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
